--- a/data/financial_statements/sofp/MPWR.xlsx
+++ b/data/financial_statements/sofp/MPWR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,129 +592,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>736047000</v>
@@ -724,8 +835,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>153404000</v>
@@ -846,8 +957,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>397435000</v>
@@ -968,8 +1079,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>36571000</v>
@@ -1033,8 +1144,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1323457000</v>
@@ -1155,8 +1266,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>343123000</v>
@@ -1277,8 +1388,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>31000000</v>
@@ -1399,8 +1510,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>6571000</v>
@@ -1503,8 +1614,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>23905000</v>
@@ -1625,8 +1736,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>234165000</v>
@@ -1747,8 +1858,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>607764000</v>
@@ -1869,8 +1980,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1931221000</v>
@@ -1991,8 +2102,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>78673000</v>
@@ -2113,8 +2224,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>212315000</v>
@@ -2235,8 +2346,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2000000</v>
@@ -2276,8 +2387,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>202000000</v>
@@ -2317,8 +2428,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>290988000</v>
@@ -2439,8 +2550,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2000000</v>
@@ -2480,8 +2591,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>-24000000</v>
@@ -2542,8 +2653,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>109524000</v>
@@ -2664,8 +2775,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>109524000</v>
@@ -2786,8 +2897,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>400512000</v>
@@ -2908,8 +3019,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>938993000</v>
@@ -3030,8 +3141,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>633640000</v>
@@ -3152,8 +3263,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1530709000</v>
@@ -3274,8 +3385,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1530709000</v>
@@ -3396,8 +3507,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1931221000</v>
@@ -3518,8 +3629,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>46941000</v>
@@ -3640,8 +3751,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1524138000</v>
@@ -3762,8 +3873,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-732047000</v>
@@ -3884,8 +3995,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>4000000</v>
